--- a/templates/Sales_Purchase_Contract_Live.xlsx
+++ b/templates/Sales_Purchase_Contract_Live.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B255BCE1-60C4-4D41-9C72-9BB63BDF47E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C38130-95AB-4939-A46B-F9C1054F8232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="2715" windowWidth="21600" windowHeight="11422" xr2:uid="{36A75300-EFCB-4154-8D49-868D6DB376F0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{36A75300-EFCB-4154-8D49-868D6DB376F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Contract" sheetId="5" r:id="rId1"/>
@@ -41,17 +41,19 @@
     <definedName name="ID_AGR_STR">#REF!</definedName>
     <definedName name="ID_EKSPORT">#REF!</definedName>
     <definedName name="ID_Эксп_ДОП">#REF!</definedName>
+    <definedName name="Invoice_sign_seller_end">Invoice!$G$33</definedName>
+    <definedName name="Invoice_sign_seller_start">Invoice!$E$33</definedName>
     <definedName name="Konosament_EXP">[1]Экспорт!$B$36</definedName>
     <definedName name="logo">INDEX([1]Б!$A$1:$A$2,MATCH(Порт_Компания,[1]Б!$B$1:$B$2,0))</definedName>
     <definedName name="nonComNo">#REF!</definedName>
     <definedName name="№_пп">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contract!$A$1:$E$83</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Invoice!$A$1:$G$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sales_Contract!$A$1:$E$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Invoice!$A$1:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sales_Contract!$A$1:$E$44</definedName>
     <definedName name="Product_VR">'[1]Внутренний рынок'!$P$2</definedName>
     <definedName name="Product_VR_Spisok">'[1]Внутренний рынок'!$B$1</definedName>
-    <definedName name="Sign_seller_end">Sales_Contract!$B$45</definedName>
-    <definedName name="Sign_seller_start">Sales_Contract!$A$45</definedName>
+    <definedName name="Sign_seller_end">Sales_Contract!$B$42</definedName>
+    <definedName name="Sign_seller_start">Sales_Contract!$A$42</definedName>
     <definedName name="Svod_EXP">[1]Экспорт!$O$36</definedName>
     <definedName name="Vessel_EXP">[1]Экспорт!$AC$1</definedName>
     <definedName name="Vessel_VR">'[1]Внутренний рынок'!$N$2</definedName>
@@ -67,29 +69,47 @@
     <definedName name="Заявка_Покупатель">#REF!</definedName>
     <definedName name="Заявка_Сорт">#REF!</definedName>
     <definedName name="Заявка_Упаковка">#REF!</definedName>
+    <definedName name="Инвойс_адреса_адрес">Invoice!$A$27</definedName>
+    <definedName name="Инвойс_адреса_банк">Invoice!$A$29</definedName>
+    <definedName name="Инвойс_адреса_банк_адрес">Invoice!$A$30</definedName>
+    <definedName name="Инвойс_адреса_банк_свифт">Invoice!$A$31</definedName>
+    <definedName name="Инвойс_адреса_продавец">Invoice!$A$26</definedName>
+    <definedName name="Инвойс_адреса_счет">Invoice!$A$28</definedName>
+    <definedName name="Инвойс_всего_места">Invoice!$C$23</definedName>
+    <definedName name="Инвойс_всего_цена">Invoice!$G$23</definedName>
+    <definedName name="Инвойс_дата">Invoice!$G$6</definedName>
+    <definedName name="Инвойс_заголовок_продавец">Invoice!$A$1</definedName>
+    <definedName name="Инвойс_заголовок_продавец_адрес">Invoice!$A$2</definedName>
     <definedName name="Инвойс_Заявка">#REF!</definedName>
+    <definedName name="Инвойс_номер">Invoice!$G$7</definedName>
+    <definedName name="Инвойс_покупатель">Invoice!$B$8</definedName>
+    <definedName name="Инвойс_предмет_массив">Invoice!$A$14</definedName>
+    <definedName name="Инвойс_продавец">Invoice!$B$9</definedName>
+    <definedName name="Инвойс_условия_доставки">Invoice!$B$10</definedName>
     <definedName name="Клиенты">#REF!</definedName>
     <definedName name="КОЛ_ВО_ЭКС">#REF!</definedName>
     <definedName name="Коносамент_ВР">'[1]Внутренний рынок'!$M$2</definedName>
-    <definedName name="Контракт_адреса_банк">Sales_Contract!$A$36</definedName>
-    <definedName name="Контракт_адреса_банк_адрес">Sales_Contract!$A$37</definedName>
-    <definedName name="Контракт_адреса_банк_свифт">Sales_Contract!$A$38</definedName>
-    <definedName name="Контракт_адреса_продавец">Sales_Contract!$A$33</definedName>
-    <definedName name="Контракт_адреса_продавец_адрес">Sales_Contract!$A$34</definedName>
-    <definedName name="Контракт_адреса_счет">Sales_Contract!$A$35</definedName>
+    <definedName name="Контракт_адреса_банк">Sales_Contract!$A$33</definedName>
+    <definedName name="Контракт_адреса_банк_адрес">Sales_Contract!$A$34</definedName>
+    <definedName name="Контракт_адреса_банк_свифт">Sales_Contract!$A$35</definedName>
+    <definedName name="Контракт_адреса_продавец">Sales_Contract!$A$30</definedName>
+    <definedName name="Контракт_адреса_продавец_адрес">Sales_Contract!$A$31</definedName>
+    <definedName name="Контракт_адреса_счет">Sales_Contract!$A$32</definedName>
+    <definedName name="Контракт_всего_места">Sales_Contract!$D$17</definedName>
+    <definedName name="Контракт_всего_цена">Sales_Contract!$E$17</definedName>
     <definedName name="Контракт_дата">Sales_Contract!$A$4</definedName>
-    <definedName name="Контракт_доставка">Sales_Contract!$A$23</definedName>
-    <definedName name="Контракт_ЕТА">Sales_Contract!$A$21</definedName>
+    <definedName name="Контракт_доставка">Sales_Contract!$A$20</definedName>
+    <definedName name="Контракт_ЕТА">Sales_Contract!$A$18</definedName>
     <definedName name="Контракт_номер">Sales_Contract!$A$3</definedName>
-    <definedName name="Контракт_оплата">Sales_Contract!$A$28</definedName>
+    <definedName name="Контракт_оплата">Sales_Contract!$A$25</definedName>
     <definedName name="Контракт_покупатель">Sales_Contract!$A$8</definedName>
     <definedName name="Контракт_покупатель_адрес">Sales_Contract!$A$9</definedName>
-    <definedName name="Контракт_покупатель_печать_подвал">Sales_Contract!$D$47</definedName>
+    <definedName name="Контракт_покупатель_печать_подвал">Sales_Contract!$D$44</definedName>
     <definedName name="Контракт_предмет">Sales_Contract!$A$13</definedName>
     <definedName name="Контракт_предмет_массив">Sales_Contract!$A$16</definedName>
     <definedName name="Контракт_продавец">Sales_Contract!$A$5</definedName>
     <definedName name="Контракт_продавец_адрес">Sales_Contract!$A$6</definedName>
-    <definedName name="Контракт_продавец_печать_подвал">Sales_Contract!$A$47</definedName>
+    <definedName name="Контракт_продавец_печать_подвал">Sales_Contract!$A$44</definedName>
     <definedName name="Краткое_наименование">#REF!</definedName>
     <definedName name="Область_печати_1">#REF!</definedName>
     <definedName name="Область_печати1">#REF!</definedName>
@@ -145,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="127">
   <si>
     <t>SALES AND PURCHASE CONTRACT</t>
   </si>
@@ -824,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,18 +1094,39 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,24 +1136,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1144,55 +1167,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,15 +1239,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>31000</xdr:rowOff>
+      <xdr:colOff>104863</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>861160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1080566</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>25609</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>84374</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1117925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1254,8 +1277,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="14205778"/>
-          <a:ext cx="3194102" cy="1186643"/>
+          <a:off x="104863" y="14100036"/>
+          <a:ext cx="3195291" cy="1187418"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,15 +1299,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>76202</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>4952</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>39825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133353</xdr:rowOff>
+      <xdr:colOff>1157475</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9603</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1314,8 +1337,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5305427" y="10510838"/>
-          <a:ext cx="3195636" cy="1190628"/>
+          <a:off x="5232452" y="10071075"/>
+          <a:ext cx="3196273" cy="1184778"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1365,6 +1388,7 @@
       <sheetName val="Продавец"/>
       <sheetName val="Вид операции"/>
       <sheetName val="Продукция"/>
+      <sheetName val="Движение ИНВОЙСЫ новое"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1450,6 +1474,7 @@
       <sheetData sheetId="24" refreshError="1"/>
       <sheetData sheetId="25" refreshError="1"/>
       <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1770,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47095D31-FC5E-470A-80F4-D63DA89DCA6C}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="169" zoomScaleNormal="157" zoomScaleSheetLayoutView="169" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="139" zoomScaleNormal="157" zoomScaleSheetLayoutView="139" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1786,13 +1811,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="50.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="85"/>
@@ -1802,13 +1827,13 @@
       <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="51" t="s">
@@ -1820,83 +1845,83 @@
       <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="36.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
       <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:5" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="56"/>
     </row>
     <row r="10" spans="1:5" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
     </row>
     <row r="12" spans="1:5" s="50" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
     </row>
     <row r="13" spans="1:5" s="50" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
     </row>
     <row r="14" spans="1:5" s="50" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="77"/>
@@ -1940,326 +1965,261 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="75">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="D17" s="74">
-        <v>1050</v>
-      </c>
-      <c r="E17" s="76">
-        <v>41160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="75">
-        <v>11</v>
-      </c>
-      <c r="D18" s="74">
-        <v>16128</v>
-      </c>
-      <c r="E18" s="76">
-        <v>177408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="75">
-        <v>7.7</v>
-      </c>
-      <c r="D19" s="74">
-        <v>672</v>
-      </c>
-      <c r="E19" s="76">
-        <v>5174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="80" t="s">
+      <c r="A17" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83">
-        <f>SUM(D16:D19)</f>
-        <v>43040</v>
-      </c>
-      <c r="E20" s="84">
-        <f>SUM(E16:E19)</f>
-        <v>1634382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="39.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="86" t="s">
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83">
+        <f>SUM(D16:D16)</f>
+        <v>25190</v>
+      </c>
+      <c r="E17" s="84">
+        <f>SUM(E16:E16)</f>
+        <v>1410640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="39.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="58" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="58" t="s">
         <v>116</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="51" t="s">
+        <v>119</v>
       </c>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
     </row>
-    <row r="23" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="51" t="s">
-        <v>117</v>
-      </c>
+    <row r="23" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="58"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
     </row>
-    <row r="24" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-    </row>
-    <row r="25" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-    </row>
-    <row r="26" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="58"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-    </row>
-    <row r="27" spans="1:5" s="50" customFormat="1" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="67" t="s">
+    <row r="24" spans="1:5" s="50" customFormat="1" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
-    </row>
-    <row r="28" spans="1:5" s="50" customFormat="1" ht="47.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="96" t="s">
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
+    </row>
+    <row r="25" spans="1:5" s="50" customFormat="1" ht="47.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-    </row>
-    <row r="29" spans="1:5" s="50" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-    </row>
-    <row r="30" spans="1:5" s="50" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="95" t="s">
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+    </row>
+    <row r="26" spans="1:5" s="50" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+    </row>
+    <row r="27" spans="1:5" s="50" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-    </row>
-    <row r="31" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="89" t="s">
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+    </row>
+    <row r="28" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="88" t="s">
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-    </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="87" t="s">
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="66"/>
-    </row>
-    <row r="35" spans="1:5" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="94" t="s">
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="66"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-    </row>
-    <row r="36" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="90" t="s">
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+    </row>
+    <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="55"/>
-    </row>
-    <row r="37" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="90" t="s">
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="55"/>
+    </row>
+    <row r="34" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="70"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="94" t="s">
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="70"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-    </row>
-    <row r="39" spans="1:5" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="61" t="s">
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+    </row>
+    <row r="36" spans="1:5" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="63"/>
-    </row>
-    <row r="41" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="57" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="63"/>
+    </row>
+    <row r="38" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-    </row>
-    <row r="42" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="51" t="s">
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+    </row>
+    <row r="39" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-    </row>
-    <row r="43" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="98" t="s">
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+    </row>
+    <row r="40" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-    </row>
-    <row r="44" spans="1:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-    </row>
-    <row r="45" spans="1:5" ht="93.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="63" t="s">
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+    </row>
+    <row r="41" spans="1:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+    </row>
+    <row r="42" spans="1:5" ht="93.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B42" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="99" t="s">
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="99"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="99" t="s">
+      <c r="B43" s="97"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="99"/>
-    </row>
-    <row r="47" spans="1:5" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="97" t="s">
+      <c r="E43" s="97"/>
+    </row>
+    <row r="44" spans="1:5" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="97" t="s">
+      <c r="B44" s="91"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="97"/>
+      <c r="E44" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A12:E12"/>
@@ -2271,12 +2231,26 @@
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="93" fitToHeight="2" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="31" max="4" man="1"/>
+    <brk id="28" max="4" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2287,10 +2261,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="127" zoomScaleNormal="100" zoomScaleSheetLayoutView="127" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2316,15 +2290,15 @@
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
     </row>
     <row r="3" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="32" t="s">
@@ -2332,15 +2306,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="53.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
     </row>
     <row r="5" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="33"/>
@@ -2389,12 +2363,12 @@
       <c r="A11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
@@ -2558,23 +2532,23 @@
       <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="22"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="104"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="47" t="s">
@@ -2591,87 +2565,93 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="44.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="107" t="s">
+      <c r="A27" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
     </row>
     <row r="28" spans="1:7" s="17" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
     </row>
     <row r="30" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
       <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="29"/>
       <c r="F31" s="27"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D32" s="30"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+    <row r="32" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="87"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="29"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:7" ht="95.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D33" s="30"/>
+      <c r="E33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="D34" s="30"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="E39" s="17" t="s">
+      <c r="E34" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="E40" s="101" t="s">
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.45">
+      <c r="E35" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E35:G35"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="C23:D23"/>
@@ -2708,146 +2688,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="54.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
     </row>
     <row r="5" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
     </row>
     <row r="11" spans="1:5" ht="10.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="117" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
@@ -2976,31 +2956,31 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="111" t="s">
+      <c r="A26" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="111" t="s">
+      <c r="A27" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
@@ -3129,31 +3109,31 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="111" t="s">
+      <c r="A36" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="111" t="s">
+      <c r="A37" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="111"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="111" t="s">
+      <c r="A38" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
@@ -3282,13 +3262,13 @@
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="110" t="s">
+      <c r="A47" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="110"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
     </row>
     <row r="48" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
@@ -3325,29 +3305,29 @@
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="119" t="s">
+      <c r="A52" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="112"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
     </row>
     <row r="55" spans="1:5" s="3" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
@@ -3358,13 +3338,13 @@
       <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="118" t="s">
+      <c r="A56" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="118"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="118"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
@@ -3375,167 +3355,149 @@
       <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="110"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="110"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="110"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="110"/>
-      <c r="E60" s="110"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="110"/>
-      <c r="C61" s="110"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="110"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="110" t="s">
+      <c r="A62" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="110"/>
-      <c r="C62" s="110"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="110"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="110" t="s">
+      <c r="A63" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="110"/>
-      <c r="C63" s="110"/>
-      <c r="D63" s="110"/>
-      <c r="E63" s="110"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="112"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="112"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="112"/>
+      <c r="A64" s="124"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="111" t="s">
+      <c r="A65" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="111"/>
-      <c r="C65" s="111"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="117"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="111" t="s">
+      <c r="A66" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="111"/>
-      <c r="C66" s="111"/>
-      <c r="D66" s="111"/>
-      <c r="E66" s="111"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
     </row>
     <row r="67" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="113" t="s">
+      <c r="A67" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="113"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="113"/>
+      <c r="B67" s="119"/>
+      <c r="C67" s="119"/>
+      <c r="D67" s="119"/>
+      <c r="E67" s="119"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="111" t="s">
+      <c r="A68" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="111"/>
-      <c r="C68" s="111"/>
-      <c r="D68" s="111"/>
-      <c r="E68" s="111"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="111" t="s">
+      <c r="A69" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="111"/>
-      <c r="C69" s="111"/>
-      <c r="D69" s="111"/>
-      <c r="E69" s="111"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
     </row>
     <row r="70" spans="1:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="113" t="s">
+      <c r="A70" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="113"/>
-      <c r="C70" s="113"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="113"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="119"/>
+      <c r="D70" s="119"/>
+      <c r="E70" s="119"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="111" t="s">
+      <c r="A71" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="111"/>
-      <c r="C71" s="111"/>
-      <c r="D71" s="111"/>
-      <c r="E71" s="111"/>
+      <c r="B71" s="117"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="117"/>
+      <c r="E71" s="117"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="117" t="s">
+      <c r="A82" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="117"/>
+      <c r="B82" s="123"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="115" t="s">
+      <c r="D82" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="E82" s="115"/>
+      <c r="E82" s="121"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="116" t="s">
+      <c r="A83" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="116"/>
+      <c r="B83" s="122"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="114" t="s">
+      <c r="D83" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="114"/>
+      <c r="E83" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A54:E54"/>
     <mergeCell ref="A69:E69"/>
     <mergeCell ref="A70:E70"/>
     <mergeCell ref="A71:E71"/>
@@ -3552,11 +3514,29 @@
     <mergeCell ref="A63:E63"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -3581,16 +3561,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="54.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
+      <c r="B1" s="112"/>
     </row>
     <row r="2" spans="1:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="123"/>
+      <c r="B2" s="113"/>
     </row>
     <row r="3" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="126" t="s">
@@ -3599,90 +3579,90 @@
       <c r="B3" s="126"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="119"/>
+      <c r="B4" s="115"/>
     </row>
     <row r="5" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="124"/>
+      <c r="B5" s="116"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="121"/>
+      <c r="B6" s="111"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="119"/>
+      <c r="B7" s="115"/>
     </row>
     <row r="8" spans="1:2" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="110"/>
+      <c r="B8" s="114"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="121"/>
+      <c r="B9" s="111"/>
     </row>
     <row r="10" spans="1:2" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="120"/>
+      <c r="B10" s="118"/>
     </row>
     <row r="11" spans="1:2" ht="10.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="120"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="118"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="117"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="110"/>
+      <c r="B13" s="114"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="124"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="111"/>
+      <c r="B15" s="117"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="110"/>
+      <c r="B16" s="114"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="110"/>
+      <c r="B17" s="114"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="114"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
@@ -3736,30 +3716,30 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="112"/>
-      <c r="B29" s="112"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="124"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="119"/>
+      <c r="B30" s="115"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="120" t="s">
+      <c r="A31" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="120"/>
+      <c r="B31" s="118"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="112"/>
-      <c r="B32" s="112"/>
+      <c r="A32" s="124"/>
+      <c r="B32" s="124"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="111"/>
+      <c r="B33" s="117"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
@@ -3767,10 +3747,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="125"/>
+      <c r="B35" s="127"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
@@ -3778,8 +3758,8 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="112"/>
-      <c r="B37" s="112"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="124"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
@@ -3787,10 +3767,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="120"/>
+      <c r="B39" s="118"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
@@ -3803,16 +3783,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="110"/>
+      <c r="B43" s="114"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="110"/>
+      <c r="B44" s="114"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
@@ -3821,110 +3801,110 @@
       <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="110"/>
+      <c r="B46" s="114"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="110" t="s">
+      <c r="A47" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="110"/>
+      <c r="B47" s="114"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="110" t="s">
+      <c r="A48" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="110"/>
+      <c r="B48" s="114"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="110"/>
+      <c r="B49" s="114"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="110"/>
+      <c r="B50" s="114"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="110"/>
+      <c r="B51" s="114"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="110"/>
+      <c r="B52" s="114"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="110"/>
+      <c r="B53" s="114"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="110" t="s">
+      <c r="A54" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="110"/>
+      <c r="B54" s="114"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="110" t="s">
+      <c r="A55" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="110"/>
+      <c r="B55" s="114"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="112"/>
-      <c r="B56" s="112"/>
+      <c r="A56" s="124"/>
+      <c r="B56" s="124"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="111" t="s">
+      <c r="A57" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="111"/>
+      <c r="B57" s="117"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="111" t="s">
+      <c r="A58" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="111"/>
+      <c r="B58" s="117"/>
     </row>
     <row r="59" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="113" t="s">
+      <c r="A59" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="113"/>
+      <c r="B59" s="119"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="111" t="s">
+      <c r="A60" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="111"/>
+      <c r="B60" s="117"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="111" t="s">
+      <c r="A61" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="111"/>
+      <c r="B61" s="117"/>
     </row>
     <row r="62" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="113" t="s">
+      <c r="A62" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="113"/>
+      <c r="B62" s="119"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="111" t="s">
+      <c r="A63" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="111"/>
+      <c r="B63" s="117"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
@@ -3944,20 +3924,22 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A30:B30"/>
@@ -3974,22 +3956,20 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>

--- a/templates/Sales_Purchase_Contract_Live.xlsx
+++ b/templates/Sales_Purchase_Contract_Live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C38130-95AB-4939-A46B-F9C1054F8232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444CEB45-C471-4386-AD36-BC338C9E76C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{36A75300-EFCB-4154-8D49-868D6DB376F0}"/>
   </bookViews>
@@ -1097,10 +1097,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1110,32 +1131,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1167,6 +1167,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1176,46 +1209,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1239,15 +1239,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104863</xdr:colOff>
+      <xdr:colOff>74027</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>861160</xdr:rowOff>
+      <xdr:rowOff>919405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>84374</xdr:colOff>
+      <xdr:colOff>53538</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>1117925</xdr:rowOff>
+      <xdr:rowOff>1176170</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1277,8 +1277,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="104863" y="14100036"/>
-          <a:ext cx="3195291" cy="1187418"/>
+          <a:off x="74027" y="13147724"/>
+          <a:ext cx="3193342" cy="1185281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47095D31-FC5E-470A-80F4-D63DA89DCA6C}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="139" zoomScaleNormal="157" zoomScaleSheetLayoutView="139" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="139" zoomScaleNormal="157" zoomScaleSheetLayoutView="139" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1811,13 +1811,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="50.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="85"/>
@@ -1827,13 +1827,13 @@
       <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="51" t="s">
@@ -1845,83 +1845,83 @@
       <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="36.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:5" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="56"/>
     </row>
     <row r="10" spans="1:5" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
     </row>
     <row r="12" spans="1:5" s="50" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
     </row>
     <row r="13" spans="1:5" s="50" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
     </row>
     <row r="14" spans="1:5" s="50" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="77"/>
@@ -2041,13 +2041,13 @@
       <c r="E24" s="68"/>
     </row>
     <row r="25" spans="1:5" s="50" customFormat="1" ht="47.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
     </row>
     <row r="26" spans="1:5" s="50" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="62"/>
@@ -2057,13 +2057,13 @@
       <c r="E26" s="62"/>
     </row>
     <row r="27" spans="1:5" s="50" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
     </row>
     <row r="28" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="63"/>
@@ -2073,67 +2073,67 @@
       <c r="E28" s="63"/>
     </row>
     <row r="29" spans="1:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
     </row>
     <row r="30" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
     </row>
     <row r="31" spans="1:5" s="3" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="66"/>
     </row>
     <row r="32" spans="1:5" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
     </row>
     <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="55"/>
     </row>
     <row r="34" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="70"/>
     </row>
     <row r="35" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
     </row>
     <row r="36" spans="1:5" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="63"/>
@@ -2170,13 +2170,13 @@
       <c r="E39" s="51"/>
     </row>
     <row r="40" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="96" t="s">
+      <c r="A40" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
     </row>
     <row r="41" spans="1:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="51"/>
@@ -2197,40 +2197,29 @@
       <c r="E42" s="63"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="97"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="64"/>
-      <c r="D43" s="97" t="s">
+      <c r="D43" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="97"/>
+      <c r="E43" s="100"/>
     </row>
     <row r="44" spans="1:5" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="91" t="s">
+      <c r="A44" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="91"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="65"/>
-      <c r="D44" s="91" t="s">
+      <c r="D44" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="91"/>
+      <c r="E44" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A25:E25"/>
@@ -2245,6 +2234,17 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -2263,8 +2263,8 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="127" zoomScaleNormal="100" zoomScaleSheetLayoutView="127" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="127" zoomScaleNormal="100" zoomScaleSheetLayoutView="127" workbookViewId="0">
+      <selection activeCell="F12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2688,146 +2688,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="54.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
     </row>
     <row r="2" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
     </row>
     <row r="5" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
     </row>
     <row r="11" spans="1:5" ht="10.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="118"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
@@ -2956,31 +2956,31 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
@@ -3109,31 +3109,31 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="117" t="s">
+      <c r="A37" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
@@ -3262,13 +3262,13 @@
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="114" t="s">
+      <c r="A47" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
     </row>
     <row r="48" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
@@ -3305,29 +3305,29 @@
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="115" t="s">
+      <c r="A52" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
+      <c r="B52" s="120"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="118" t="s">
+      <c r="A53" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="118"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="124"/>
-      <c r="B54" s="124"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
     </row>
     <row r="55" spans="1:5" s="3" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
@@ -3338,13 +3338,13 @@
       <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="125" t="s">
+      <c r="A56" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="125"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
@@ -3355,149 +3355,167 @@
       <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="114" t="s">
+      <c r="A59" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="114" t="s">
+      <c r="A60" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="114" t="s">
+      <c r="A61" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="114" t="s">
+      <c r="A62" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="114" t="s">
+      <c r="A63" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="114"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="124"/>
-      <c r="B64" s="124"/>
-      <c r="C64" s="124"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="113"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="117" t="s">
+      <c r="A65" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="117"/>
-      <c r="C65" s="117"/>
-      <c r="D65" s="117"/>
-      <c r="E65" s="117"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="117" t="s">
+      <c r="A66" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="117"/>
-      <c r="C66" s="117"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="117"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
     </row>
     <row r="67" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="119" t="s">
+      <c r="A67" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="119"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="119"/>
-      <c r="E67" s="119"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="117" t="s">
+      <c r="A68" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="117"/>
-      <c r="C68" s="117"/>
-      <c r="D68" s="117"/>
-      <c r="E68" s="117"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="112"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="117" t="s">
+      <c r="A69" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="117"/>
-      <c r="C69" s="117"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="117"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="112"/>
     </row>
     <row r="70" spans="1:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="119" t="s">
+      <c r="A70" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="119"/>
-      <c r="C70" s="119"/>
-      <c r="D70" s="119"/>
-      <c r="E70" s="119"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="117" t="s">
+      <c r="A71" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="117"/>
-      <c r="C71" s="117"/>
-      <c r="D71" s="117"/>
-      <c r="E71" s="117"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="112"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="123" t="s">
+      <c r="A82" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="123"/>
+      <c r="B82" s="118"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="121" t="s">
+      <c r="D82" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="E82" s="121"/>
+      <c r="E82" s="116"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="122" t="s">
+      <c r="A83" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="122"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="120" t="s">
+      <c r="D83" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="120"/>
+      <c r="E83" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A47:E47"/>
     <mergeCell ref="A69:E69"/>
     <mergeCell ref="A70:E70"/>
     <mergeCell ref="A71:E71"/>
@@ -3514,29 +3532,11 @@
     <mergeCell ref="A63:E63"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A54:E54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -3561,108 +3561,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="54.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="123"/>
     </row>
     <row r="2" spans="1:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="124"/>
     </row>
     <row r="3" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="126"/>
+      <c r="B3" s="127"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="120"/>
     </row>
     <row r="5" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="116"/>
+      <c r="B5" s="125"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="111"/>
+      <c r="B6" s="122"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="115"/>
+      <c r="B7" s="120"/>
     </row>
     <row r="8" spans="1:2" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="114"/>
+      <c r="B8" s="111"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111"/>
+      <c r="B9" s="122"/>
     </row>
     <row r="10" spans="1:2" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="118"/>
+      <c r="B10" s="121"/>
     </row>
     <row r="11" spans="1:2" ht="10.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="118"/>
-      <c r="B11" s="118"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="117"/>
+      <c r="B12" s="112"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="114"/>
+      <c r="B13" s="111"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="124"/>
-      <c r="B14" s="124"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="117"/>
+      <c r="B15" s="112"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="111"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="111"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="114"/>
+      <c r="B18" s="111"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
@@ -3716,30 +3716,30 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="124"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="113"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="115"/>
+      <c r="B30" s="120"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="118" t="s">
+      <c r="A31" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="118"/>
+      <c r="B31" s="121"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="124"/>
-      <c r="B32" s="124"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="113"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="117"/>
+      <c r="B33" s="112"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
@@ -3747,10 +3747,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="127" t="s">
+      <c r="A35" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="127"/>
+      <c r="B35" s="126"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
@@ -3758,8 +3758,8 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="124"/>
-      <c r="B37" s="124"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="113"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
@@ -3767,10 +3767,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="118" t="s">
+      <c r="A39" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="118"/>
+      <c r="B39" s="121"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
@@ -3783,16 +3783,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="114" t="s">
+      <c r="A43" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="114"/>
+      <c r="B43" s="111"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="114" t="s">
+      <c r="A44" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="114"/>
+      <c r="B44" s="111"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
@@ -3801,110 +3801,110 @@
       <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="114" t="s">
+      <c r="A46" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="114"/>
+      <c r="B46" s="111"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="114" t="s">
+      <c r="A47" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="114"/>
+      <c r="B47" s="111"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="114" t="s">
+      <c r="A48" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="114"/>
+      <c r="B48" s="111"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="114"/>
+      <c r="B49" s="111"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="114" t="s">
+      <c r="A50" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="114"/>
+      <c r="B50" s="111"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="114" t="s">
+      <c r="A51" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="114"/>
+      <c r="B51" s="111"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="114" t="s">
+      <c r="A52" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="114"/>
+      <c r="B52" s="111"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="114" t="s">
+      <c r="A53" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="114"/>
+      <c r="B53" s="111"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="114" t="s">
+      <c r="A54" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="114"/>
+      <c r="B54" s="111"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="114" t="s">
+      <c r="A55" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="114"/>
+      <c r="B55" s="111"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="124"/>
-      <c r="B56" s="124"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="113"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="117" t="s">
+      <c r="A57" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="117"/>
+      <c r="B57" s="112"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="117" t="s">
+      <c r="A58" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="117"/>
+      <c r="B58" s="112"/>
     </row>
     <row r="59" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="119" t="s">
+      <c r="A59" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="119"/>
+      <c r="B59" s="114"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="117" t="s">
+      <c r="A60" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="117"/>
+      <c r="B60" s="112"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="117" t="s">
+      <c r="A61" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="117"/>
+      <c r="B61" s="112"/>
     </row>
     <row r="62" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="119" t="s">
+      <c r="A62" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="119"/>
+      <c r="B62" s="114"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="117" t="s">
+      <c r="A63" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="117"/>
+      <c r="B63" s="112"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
@@ -3924,6 +3924,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A58:B58"/>
@@ -3940,36 +3970,6 @@
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>

--- a/templates/Sales_Purchase_Contract_Live.xlsx
+++ b/templates/Sales_Purchase_Contract_Live.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444CEB45-C471-4386-AD36-BC338C9E76C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA36CF-D499-4FA6-B4DB-28BBA3BB53BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{36A75300-EFCB-4154-8D49-868D6DB376F0}"/>
+    <workbookView xWindow="-55778" yWindow="-277" windowWidth="28995" windowHeight="16394" activeTab="1" xr2:uid="{36A75300-EFCB-4154-8D49-868D6DB376F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Contract" sheetId="5" r:id="rId1"/>
@@ -18,77 +18,36 @@
     <sheet name="Contract" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Contract Old" sheetId="1" state="hidden" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_Hlk38966714" localSheetId="2">Contract!#REF!</definedName>
     <definedName name="_Hlk38966714" localSheetId="3">'Contract Old'!$A$21</definedName>
-    <definedName name="_Hlk38966714" localSheetId="0">Sales_Contract!#REF!</definedName>
     <definedName name="_Hlk39074976" localSheetId="2">Contract!$A$15</definedName>
     <definedName name="_Hlk39074976" localSheetId="3">'Contract Old'!$A$18</definedName>
-    <definedName name="_Hlk39074976" localSheetId="0">Sales_Contract!#REF!</definedName>
     <definedName name="_Hlk39404391" localSheetId="2">Contract!#REF!</definedName>
     <definedName name="_Hlk39404391" localSheetId="3">'Contract Old'!$A$34</definedName>
-    <definedName name="_Hlk39404391" localSheetId="0">Sales_Contract!#REF!</definedName>
-    <definedName name="Agr_No_EXP">#REF!</definedName>
-    <definedName name="AgreementHidden">#REF!</definedName>
-    <definedName name="AgrNo">#REF!</definedName>
-    <definedName name="BL_Key">#REF!</definedName>
-    <definedName name="BL_List">#REF!</definedName>
-    <definedName name="Disch_BL">'[1]Инвойсы выгрузка'!$O$2</definedName>
-    <definedName name="Dop_EXP">[1]Экспорт!$U$35</definedName>
-    <definedName name="ID_AGR_STR">#REF!</definedName>
-    <definedName name="ID_EKSPORT">#REF!</definedName>
-    <definedName name="ID_Эксп_ДОП">#REF!</definedName>
-    <definedName name="Invoice_sign_seller_end">Invoice!$G$33</definedName>
-    <definedName name="Invoice_sign_seller_start">Invoice!$E$33</definedName>
-    <definedName name="Konosament_EXP">[1]Экспорт!$B$36</definedName>
-    <definedName name="logo">INDEX([1]Б!$A$1:$A$2,MATCH(Порт_Компания,[1]Б!$B$1:$B$2,0))</definedName>
-    <definedName name="nonComNo">#REF!</definedName>
-    <definedName name="№_пп">#REF!</definedName>
+    <definedName name="Invoice_sign_seller_end">Invoice!$G$30</definedName>
+    <definedName name="Invoice_sign_seller_start">Invoice!$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contract!$A$1:$E$83</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Invoice!$A$1:$G$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sales_Contract!$A$1:$E$44</definedName>
-    <definedName name="Product_VR">'[1]Внутренний рынок'!$P$2</definedName>
-    <definedName name="Product_VR_Spisok">'[1]Внутренний рынок'!$B$1</definedName>
     <definedName name="Sign_seller_end">Sales_Contract!$B$42</definedName>
     <definedName name="Sign_seller_start">Sales_Contract!$A$42</definedName>
-    <definedName name="Svod_EXP">[1]Экспорт!$O$36</definedName>
-    <definedName name="Vessel_EXP">[1]Экспорт!$AC$1</definedName>
-    <definedName name="Vessel_VR">'[1]Внутренний рынок'!$N$2</definedName>
-    <definedName name="Vessel_VV">'[1]Внутренний рынок'!$A$1</definedName>
-    <definedName name="ВМРП">#REF!</definedName>
-    <definedName name="ДалькомХолод">#REF!</definedName>
-    <definedName name="ДВ_Порт">#REF!</definedName>
-    <definedName name="ДоговорНомер">#REF!</definedName>
-    <definedName name="Допы_Хранение">#REF!</definedName>
-    <definedName name="Заявка">#REF!</definedName>
-    <definedName name="Заявка_Изготовитель">#REF!</definedName>
-    <definedName name="Заявка_наименование">#REF!</definedName>
-    <definedName name="Заявка_Покупатель">#REF!</definedName>
-    <definedName name="Заявка_Сорт">#REF!</definedName>
-    <definedName name="Заявка_Упаковка">#REF!</definedName>
-    <definedName name="Инвойс_адреса_адрес">Invoice!$A$27</definedName>
-    <definedName name="Инвойс_адреса_банк">Invoice!$A$29</definedName>
-    <definedName name="Инвойс_адреса_банк_адрес">Invoice!$A$30</definedName>
-    <definedName name="Инвойс_адреса_банк_свифт">Invoice!$A$31</definedName>
-    <definedName name="Инвойс_адреса_продавец">Invoice!$A$26</definedName>
-    <definedName name="Инвойс_адреса_счет">Invoice!$A$28</definedName>
-    <definedName name="Инвойс_всего_места">Invoice!$C$23</definedName>
-    <definedName name="Инвойс_всего_цена">Invoice!$G$23</definedName>
+    <definedName name="Документация_BL">Sales_Contract!$A$40</definedName>
+    <definedName name="Инвойс_адреса_адрес">Invoice!$A$24</definedName>
+    <definedName name="Инвойс_адреса_банк">Invoice!$A$26</definedName>
+    <definedName name="Инвойс_адреса_банк_адрес">Invoice!$A$27</definedName>
+    <definedName name="Инвойс_адреса_банк_свифт">Invoice!$A$28</definedName>
+    <definedName name="Инвойс_адреса_продавец">Invoice!$A$23</definedName>
+    <definedName name="Инвойс_адреса_счет">Invoice!$A$25</definedName>
+    <definedName name="Инвойс_всего_места">Invoice!$C$20</definedName>
+    <definedName name="Инвойс_всего_цена">Invoice!$G$20</definedName>
     <definedName name="Инвойс_дата">Invoice!$G$6</definedName>
     <definedName name="Инвойс_заголовок_продавец">Invoice!$A$1</definedName>
     <definedName name="Инвойс_заголовок_продавец_адрес">Invoice!$A$2</definedName>
-    <definedName name="Инвойс_Заявка">#REF!</definedName>
     <definedName name="Инвойс_номер">Invoice!$G$7</definedName>
     <definedName name="Инвойс_покупатель">Invoice!$B$8</definedName>
     <definedName name="Инвойс_предмет_массив">Invoice!$A$14</definedName>
     <definedName name="Инвойс_продавец">Invoice!$B$9</definedName>
+    <definedName name="Инвойс_продавец_печать_подвал">Invoice!$E$32</definedName>
     <definedName name="Инвойс_условия_доставки">Invoice!$B$10</definedName>
-    <definedName name="Клиенты">#REF!</definedName>
-    <definedName name="КОЛ_ВО_ЭКС">#REF!</definedName>
-    <definedName name="Коносамент_ВР">'[1]Внутренний рынок'!$M$2</definedName>
     <definedName name="Контракт_адреса_банк">Sales_Contract!$A$33</definedName>
     <definedName name="Контракт_адреса_банк_адрес">Sales_Contract!$A$34</definedName>
     <definedName name="Контракт_адреса_банк_свифт">Sales_Contract!$A$35</definedName>
@@ -110,39 +69,6 @@
     <definedName name="Контракт_продавец">Sales_Contract!$A$5</definedName>
     <definedName name="Контракт_продавец_адрес">Sales_Contract!$A$6</definedName>
     <definedName name="Контракт_продавец_печать_подвал">Sales_Contract!$A$44</definedName>
-    <definedName name="Краткое_наименование">#REF!</definedName>
-    <definedName name="Область_печати_1">#REF!</definedName>
-    <definedName name="Область_печати1">#REF!</definedName>
-    <definedName name="Письмо">#REF!</definedName>
-    <definedName name="Письмо_в_Порт">#REF!</definedName>
-    <definedName name="Полное_наименование">#REF!</definedName>
-    <definedName name="Порт_Договор">#REF!</definedName>
-    <definedName name="Порт_Договор_Фильтр">#REF!</definedName>
-    <definedName name="Порт_Компания">#REF!</definedName>
-    <definedName name="Порт_Магадан">[1]!SPTamozhnya[Порт]</definedName>
-    <definedName name="Прод_тест">[1]Коносаменты!#REF!</definedName>
-    <definedName name="ПРОД_ЭКС">#REF!</definedName>
-    <definedName name="ПРОД_ЭКС_1">#REF!</definedName>
-    <definedName name="ПРОД_ЭКС_2">#REF!</definedName>
-    <definedName name="ПРОД_ЭКС2">#REF!</definedName>
-    <definedName name="Руководство">#REF!</definedName>
-    <definedName name="СОРТ_ЭКСП">#REF!</definedName>
-    <definedName name="СУММ_ЭКСП">#REF!</definedName>
-    <definedName name="Сумма_Тов">#REF!</definedName>
-    <definedName name="Телефон">#REF!</definedName>
-    <definedName name="ТОВ_1">#REF!</definedName>
-    <definedName name="ХР_BL">#REF!</definedName>
-    <definedName name="ХР_ID">#REF!</definedName>
-    <definedName name="ХР_Product">#REF!</definedName>
-    <definedName name="ХР_Колво">#REF!</definedName>
-    <definedName name="ХР_Объем">#REF!</definedName>
-    <definedName name="ХР_Продукция">#REF!</definedName>
-    <definedName name="ХР_Сумма">#REF!</definedName>
-    <definedName name="ХР_Упаковка">#REF!</definedName>
-    <definedName name="ХР_Цена">#REF!</definedName>
-    <definedName name="Хранение_продукция">'[1]Экспорт Хранение'!$AF$1</definedName>
-    <definedName name="Хранение_Суда">'[1]Экспорт Хранение'!$AE$1</definedName>
-    <definedName name="ЦЕНА_ЭКСП">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -165,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="125">
   <si>
     <t>SALES AND PURCHASE CONTRACT</t>
   </si>
@@ -466,9 +392,6 @@
     <t>____________________________________________________</t>
   </si>
   <si>
-    <t>______________________________________________________________________________________________________________________</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Payment: </t>
   </si>
   <si>
@@ -476,10 +399,6 @@
   </si>
   <si>
     <t>REQUEST FOR PAYMENT OF FOLLOWING IN TABLE GOODS</t>
-  </si>
-  <si>
-    <t>Opilio Snow Crab Live
-(Filling 80-90%)</t>
   </si>
   <si>
     <t>A</t>
@@ -504,9 +423,6 @@
 (Filling 80-90%)</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>1 634 382,40 $</t>
   </si>
   <si>
@@ -559,9 +475,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.1. The Seller agrees to sell and the Buyer agrees to purchase goods produced by f/v "Talan" with following in table assortment: </t>
-  </si>
-  <si>
-    <t>____________________________________________</t>
   </si>
   <si>
     <r>
@@ -594,6 +507,12 @@
   </si>
   <si>
     <t>Price/kg</t>
+  </si>
+  <si>
+    <t>__________________________________________________</t>
+  </si>
+  <si>
+    <t>_________________________________________________________________________________________________________________________</t>
   </si>
 </sst>
 </file>
@@ -844,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -933,9 +852,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1127,24 +1043,15 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1216,6 +1123,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,252 +1154,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>74027</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>919405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>53538</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>1176170</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 3" descr="A close-up of a sign&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA76E4D-2486-41B4-98A4-D4A066409782}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="74027" y="13147724"/>
-          <a:ext cx="3193342" cy="1185281"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4952</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>39825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1157475</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9603</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 3" descr="A close-up of a sign&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655C0B08-F270-110A-8F1E-4CC2C2CF060F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5232452" y="10071075"/>
-          <a:ext cx="3196273" cy="1184778"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Картинки"/>
-      <sheetName val="SPSortAssortiment"/>
-      <sheetName val="SPPackage"/>
-      <sheetName val="Инвойсы хранение"/>
-      <sheetName val="Инвойсы выгрузка"/>
-      <sheetName val="Коносаменты"/>
-      <sheetName val="№рейса_справочник"/>
-      <sheetName val="Образцы"/>
-      <sheetName val="Транспорта"/>
-      <sheetName val="Экспорт"/>
-      <sheetName val="Экспорт Хранение"/>
-      <sheetName val="Внутренний рынок"/>
-      <sheetName val="SP_Consignee"/>
-      <sheetName val="SPContract"/>
-      <sheetName val="SPAgent"/>
-      <sheetName val="SPBankProdavec"/>
-      <sheetName val="SPPortZarubezh"/>
-      <sheetName val="SPRekvizitBankProdavec"/>
-      <sheetName val="SPTamozhnya"/>
-      <sheetName val="SPPodpisant"/>
-      <sheetName val="SPPort"/>
-      <sheetName val="SPClientsSell"/>
-      <sheetName val="Б"/>
-      <sheetName val="Суда"/>
-      <sheetName val="Продавец"/>
-      <sheetName val="Вид операции"/>
-      <sheetName val="Продукция"/>
-      <sheetName val="Движение ИНВОЙСЫ новое"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="O2" t="str">
-            <v>BNWE-52T</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="AC1" t="str">
-            <v>РШ "Харбиз"</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="U35">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v/>
-          </cell>
-          <cell r="O36" t="e">
-            <v>#VALUE!</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v/>
-          </cell>
-          <cell r="B1" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="M2" t="str">
-            <v/>
-          </cell>
-          <cell r="N2" t="str">
-            <v/>
-          </cell>
-          <cell r="P2" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>ТРК</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>МСИ</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1797,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47095D31-FC5E-470A-80F4-D63DA89DCA6C}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="139" zoomScaleNormal="157" zoomScaleSheetLayoutView="139" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="139" zoomScaleNormal="157" zoomScaleSheetLayoutView="139" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1811,428 +1487,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="50.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="36.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="54"/>
-    </row>
-    <row r="7" spans="1:5" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="55"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="53"/>
+    </row>
+    <row r="7" spans="1:5" s="49" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="88" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="56"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-    </row>
-    <row r="12" spans="1:5" s="50" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="90" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+    </row>
+    <row r="12" spans="1:5" s="49" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-    </row>
-    <row r="13" spans="1:5" s="50" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-    </row>
-    <row r="14" spans="1:5" s="50" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="77"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+    </row>
+    <row r="13" spans="1:5" s="49" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+    </row>
+    <row r="14" spans="1:5" s="49" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="76"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="75">
+      <c r="B16" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="74">
         <v>56</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="73">
         <v>25190</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="75">
         <v>1410640</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83">
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82">
         <f>SUM(D16:D16)</f>
         <v>25190</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="83">
         <f>SUM(E16:E16)</f>
         <v>1410640</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="39.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
+      <c r="A18" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
     </row>
     <row r="19" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+    </row>
+    <row r="20" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-    </row>
-    <row r="20" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="51" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="57"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="1:5" s="49" customFormat="1" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+    </row>
+    <row r="25" spans="1:5" s="49" customFormat="1" ht="47.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+    </row>
+    <row r="26" spans="1:5" s="49" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+    </row>
+    <row r="27" spans="1:5" s="49" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-    </row>
-    <row r="23" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="58"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-    </row>
-    <row r="24" spans="1:5" s="50" customFormat="1" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
-    </row>
-    <row r="25" spans="1:5" s="50" customFormat="1" ht="47.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-    </row>
-    <row r="26" spans="1:5" s="50" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-    </row>
-    <row r="27" spans="1:5" s="50" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
     </row>
     <row r="28" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
     </row>
     <row r="29" spans="1:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
     </row>
     <row r="30" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
     </row>
     <row r="31" spans="1:5" s="3" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="66"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="65"/>
     </row>
     <row r="32" spans="1:5" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
     </row>
     <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="55"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="54"/>
     </row>
     <row r="34" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="70"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="69"/>
     </row>
     <row r="35" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
     </row>
     <row r="36" spans="1:5" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
     </row>
     <row r="37" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="63"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
     </row>
     <row r="39" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
     </row>
     <row r="40" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="99" t="s">
+      <c r="A40" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
     </row>
     <row r="41" spans="1:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
     </row>
     <row r="42" spans="1:5" ht="93.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="100" t="s">
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+    </row>
+    <row r="43" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="100"/>
-    </row>
-    <row r="44" spans="1:5" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="98" t="s">
+      <c r="B43" s="125"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="125" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="125"/>
+    </row>
+    <row r="44" spans="1:5" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="98" t="s">
+      <c r="B44" s="124"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="98"/>
+      <c r="E44" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="21">
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:E44"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:E43"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:E10"/>
@@ -2252,7 +1924,6 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="28" max="4" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2261,10 +1932,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="127" zoomScaleNormal="100" zoomScaleSheetLayoutView="127" workbookViewId="0">
-      <selection activeCell="F12" sqref="B12:F12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="127" zoomScaleNormal="100" zoomScaleSheetLayoutView="127" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2290,40 +1961,46 @@
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
     </row>
     <row r="3" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="32" t="s">
-        <v>92</v>
-      </c>
+      <c r="A3" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="53.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
     </row>
     <row r="5" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G6" s="28" t="s">
@@ -2356,317 +2033,246 @@
         <v>88</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:7" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="40" t="s">
+      <c r="C13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="40" t="s">
+      <c r="E13" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="44">
+        <v>56</v>
+      </c>
+      <c r="F14" s="37">
+        <v>25190</v>
+      </c>
+      <c r="G14" s="45">
+        <v>1410640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="32.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="45">
-        <v>56</v>
-      </c>
-      <c r="F14" s="38">
-        <v>25190</v>
-      </c>
-      <c r="G14" s="46">
-        <v>1410640</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="32.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="45">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="F15" s="38">
-        <v>1050</v>
-      </c>
-      <c r="G15" s="46">
-        <v>41160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="32.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="45">
-        <v>11</v>
-      </c>
-      <c r="F16" s="38">
-        <v>16128</v>
-      </c>
-      <c r="G16" s="46">
-        <v>177408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="32.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="45">
-        <v>7.7</v>
-      </c>
-      <c r="F17" s="38">
-        <v>672</v>
-      </c>
-      <c r="G17" s="46">
-        <v>5174</v>
-      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="A18" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-    </row>
-    <row r="20" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="101"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="22"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="6.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="22"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" ht="44.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-    </row>
-    <row r="26" spans="1:7" s="17" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="107" t="s">
+      <c r="G20" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="6.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="22"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" ht="44.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+    </row>
+    <row r="23" spans="1:7" s="17" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-    </row>
-    <row r="27" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="108" t="s">
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+    </row>
+    <row r="24" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-    </row>
-    <row r="28" spans="1:7" s="17" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="101" t="s">
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+    </row>
+    <row r="25" spans="1:7" s="17" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-    </row>
-    <row r="29" spans="1:7" s="17" customFormat="1" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="108" t="s">
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+    </row>
+    <row r="26" spans="1:7" s="17" customFormat="1" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-    </row>
-    <row r="30" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="108" t="s">
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+    </row>
+    <row r="27" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="29"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="29"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="95.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="101" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="29"/>
-      <c r="F31" s="27"/>
+      <c r="E30" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E31" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="17"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="87"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="29"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="4:7" ht="95.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D33" s="30"/>
-      <c r="E33" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="E34" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.45">
-      <c r="E35" s="102" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E32" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="A2:G2"/>
+  <mergeCells count="12">
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2688,146 +2294,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="54.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
     </row>
     <row r="2" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
     </row>
     <row r="5" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
     </row>
     <row r="11" spans="1:5" ht="10.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
@@ -2837,7 +2443,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>62</v>
@@ -2853,14 +2459,14 @@
       <c r="B18" s="6">
         <v>931</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="47">
         <v>18620</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2870,14 +2476,14 @@
       <c r="B19" s="15">
         <v>1560</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="47">
         <v>31200</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2887,14 +2493,14 @@
       <c r="B20" s="15">
         <v>952</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="47">
         <v>19040</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2904,14 +2510,14 @@
       <c r="B21" s="15">
         <v>114</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="47">
         <v>2280</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2921,14 +2527,14 @@
       <c r="B22" s="15">
         <v>13</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="47">
         <v>260</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2939,13 +2545,13 @@
         <f>SUM(B18:B22)</f>
         <v>3570</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="48">
         <f xml:space="preserve"> SUM(C18:C22)</f>
         <v>71400</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2956,31 +2562,31 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="112" t="s">
+      <c r="A26" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
@@ -2990,7 +2596,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>62</v>
@@ -3010,10 +2616,10 @@
         <v>18620</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3027,10 +2633,10 @@
         <v>31200</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3044,10 +2650,10 @@
         <v>19040</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3061,10 +2667,10 @@
         <v>2280</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3078,10 +2684,10 @@
         <v>260</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3092,13 +2698,13 @@
         <f>SUM(B29:B33)</f>
         <v>3570</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="48">
         <f xml:space="preserve"> SUM(C29:C33)</f>
         <v>71400</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3109,31 +2715,31 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="112" t="s">
+      <c r="A38" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
@@ -3143,7 +2749,7 @@
         <v>61</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>62</v>
@@ -3163,10 +2769,10 @@
         <v>18620</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3180,10 +2786,10 @@
         <v>31200</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3197,10 +2803,10 @@
         <v>19040</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3214,10 +2820,10 @@
         <v>2280</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -3231,10 +2837,10 @@
         <v>260</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3245,13 +2851,13 @@
         <f>SUM(B40:B44)</f>
         <v>3570</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="48">
         <f xml:space="preserve"> SUM(C40:C44)</f>
         <v>71400</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -3262,17 +2868,17 @@
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="111" t="s">
+      <c r="A47" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="111"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
     </row>
     <row r="48" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -3305,29 +2911,29 @@
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="120" t="s">
+      <c r="A52" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="120"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="121" t="s">
+      <c r="A53" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="113"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
     </row>
     <row r="55" spans="1:5" s="3" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
@@ -3338,13 +2944,13 @@
       <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="119" t="s">
+      <c r="A56" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
@@ -3355,141 +2961,141 @@
       <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="111" t="s">
+      <c r="A59" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="111"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="111" t="s">
+      <c r="A60" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="111"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="111"/>
-      <c r="E60" s="111"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="111" t="s">
+      <c r="A61" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="111"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="111"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="111" t="s">
+      <c r="A62" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="111"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="111"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="111" t="s">
+      <c r="A63" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="111"/>
-      <c r="C63" s="111"/>
-      <c r="D63" s="111"/>
-      <c r="E63" s="111"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="113"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="112" t="s">
+      <c r="A65" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="112"/>
-      <c r="C65" s="112"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="112" t="s">
+      <c r="A66" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="112"/>
-      <c r="C66" s="112"/>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="108"/>
+      <c r="E66" s="108"/>
     </row>
     <row r="67" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="114" t="s">
+      <c r="A67" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
+      <c r="B67" s="110"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="110"/>
+      <c r="E67" s="110"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="112" t="s">
+      <c r="A68" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="112"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="112" t="s">
+      <c r="A69" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="112"/>
-      <c r="C69" s="112"/>
-      <c r="D69" s="112"/>
-      <c r="E69" s="112"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
     </row>
     <row r="70" spans="1:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="114" t="s">
+      <c r="A70" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="114"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
+      <c r="B70" s="110"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="112" t="s">
+      <c r="A71" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="112"/>
-      <c r="C71" s="112"/>
-      <c r="D71" s="112"/>
-      <c r="E71" s="112"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="118" t="s">
+      <c r="A82" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="118"/>
+      <c r="B82" s="114"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="116" t="s">
+      <c r="D82" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="E82" s="116"/>
+      <c r="E82" s="112"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="117" t="s">
+      <c r="A83" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="117"/>
+      <c r="B83" s="113"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="115" t="s">
+      <c r="D83" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="115"/>
+      <c r="E83" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -3561,108 +3167,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="54.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
+      <c r="B1" s="119"/>
     </row>
     <row r="2" spans="1:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="124"/>
+      <c r="B2" s="120"/>
     </row>
     <row r="3" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="127"/>
+      <c r="B3" s="123"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="120"/>
+      <c r="B4" s="116"/>
     </row>
     <row r="5" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="125"/>
+      <c r="B5" s="121"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="118"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="120"/>
+      <c r="B7" s="116"/>
     </row>
     <row r="8" spans="1:2" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="111"/>
+      <c r="B8" s="107"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="122"/>
+      <c r="B9" s="118"/>
     </row>
     <row r="10" spans="1:2" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="117"/>
     </row>
     <row r="11" spans="1:2" ht="10.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="117"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="112"/>
+      <c r="B12" s="108"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="111"/>
+      <c r="B13" s="107"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="112"/>
+      <c r="B15" s="108"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="111"/>
+      <c r="B16" s="107"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="111"/>
+      <c r="B17" s="107"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="111"/>
+      <c r="B18" s="107"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
@@ -3716,30 +3322,30 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="120"/>
+      <c r="B30" s="116"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="121" t="s">
+      <c r="A31" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="121"/>
+      <c r="B31" s="117"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="109"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="112"/>
+      <c r="B33" s="108"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
@@ -3747,10 +3353,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="126"/>
+      <c r="B35" s="122"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
@@ -3758,8 +3364,8 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="113"/>
-      <c r="B37" s="113"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="109"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
@@ -3767,10 +3373,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="121" t="s">
+      <c r="A39" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="121"/>
+      <c r="B39" s="117"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
@@ -3783,16 +3389,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="111" t="s">
+      <c r="A43" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="111"/>
+      <c r="B43" s="107"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="111"/>
+      <c r="B44" s="107"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
@@ -3801,110 +3407,110 @@
       <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="111" t="s">
+      <c r="A46" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="111"/>
+      <c r="B46" s="107"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="111" t="s">
+      <c r="A47" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="111"/>
+      <c r="B47" s="107"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="111" t="s">
+      <c r="A48" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="111"/>
+      <c r="B48" s="107"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="111"/>
+      <c r="B49" s="107"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="111" t="s">
+      <c r="A50" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="111"/>
+      <c r="B50" s="107"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="111" t="s">
+      <c r="A51" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="111"/>
+      <c r="B51" s="107"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="111" t="s">
+      <c r="A52" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="111"/>
+      <c r="B52" s="107"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="111" t="s">
+      <c r="A53" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="111"/>
+      <c r="B53" s="107"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="111" t="s">
+      <c r="A54" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="111"/>
+      <c r="B54" s="107"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="111" t="s">
+      <c r="A55" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="111"/>
+      <c r="B55" s="107"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="113"/>
-      <c r="B56" s="113"/>
+      <c r="A56" s="109"/>
+      <c r="B56" s="109"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="112" t="s">
+      <c r="A57" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="112"/>
+      <c r="B57" s="108"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="112" t="s">
+      <c r="A58" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="112"/>
+      <c r="B58" s="108"/>
     </row>
     <row r="59" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="114" t="s">
+      <c r="A59" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="114"/>
+      <c r="B59" s="110"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="112" t="s">
+      <c r="A60" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="112"/>
+      <c r="B60" s="108"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="112" t="s">
+      <c r="A61" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="112"/>
+      <c r="B61" s="108"/>
     </row>
     <row r="62" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="114" t="s">
+      <c r="A62" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="114"/>
+      <c r="B62" s="110"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="112" t="s">
+      <c r="A63" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="112"/>
+      <c r="B63" s="108"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">

--- a/templates/Sales_Purchase_Contract_Live.xlsx
+++ b/templates/Sales_Purchase_Contract_Live.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CA36CF-D499-4FA6-B4DB-28BBA3BB53BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ABD0CB-ECFB-4184-89BF-D490EF7F91DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55778" yWindow="-277" windowWidth="28995" windowHeight="16394" activeTab="1" xr2:uid="{36A75300-EFCB-4154-8D49-868D6DB376F0}"/>
+    <workbookView xWindow="28702" yWindow="83" windowWidth="27076" windowHeight="16995" xr2:uid="{36A75300-EFCB-4154-8D49-868D6DB376F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Contract" sheetId="5" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <definedName name="Invoice_sign_seller_end">Invoice!$G$30</definedName>
     <definedName name="Invoice_sign_seller_start">Invoice!$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contract!$A$1:$E$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Invoice!$A$1:$G$32</definedName>
     <definedName name="Sign_seller_end">Sales_Contract!$B$42</definedName>
     <definedName name="Sign_seller_start">Sales_Contract!$A$42</definedName>
     <definedName name="Документация_BL">Sales_Contract!$A$40</definedName>
@@ -1013,9 +1014,51 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1023,41 +1066,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1067,12 +1089,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1123,21 +1139,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1473,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47095D31-FC5E-470A-80F4-D63DA89DCA6C}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="139" zoomScaleNormal="157" zoomScaleSheetLayoutView="139" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="139" zoomScaleNormal="157" zoomScaleSheetLayoutView="139" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1487,13 +1488,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="50.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="84"/>
@@ -1503,13 +1504,13 @@
       <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="50" t="s">
@@ -1521,83 +1522,83 @@
       <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="36.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:5" s="49" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
       <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
     </row>
     <row r="12" spans="1:5" s="49" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="13" spans="1:5" s="49" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
     </row>
     <row r="14" spans="1:5" s="49" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="76"/>
@@ -1717,13 +1718,13 @@
       <c r="E24" s="67"/>
     </row>
     <row r="25" spans="1:5" s="49" customFormat="1" ht="47.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
     </row>
     <row r="26" spans="1:5" s="49" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="61"/>
@@ -1733,13 +1734,13 @@
       <c r="E26" s="61"/>
     </row>
     <row r="27" spans="1:5" s="49" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
     </row>
     <row r="28" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="62"/>
@@ -1749,67 +1750,67 @@
       <c r="E28" s="62"/>
     </row>
     <row r="29" spans="1:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
     </row>
     <row r="30" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
     </row>
     <row r="31" spans="1:5" s="3" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
       <c r="E31" s="65"/>
     </row>
     <row r="32" spans="1:5" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
     </row>
     <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="54"/>
     </row>
     <row r="34" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="69"/>
     </row>
     <row r="35" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
     </row>
     <row r="36" spans="1:5" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="62"/>
@@ -1846,13 +1847,13 @@
       <c r="E39" s="50"/>
     </row>
     <row r="40" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="97" t="s">
+      <c r="A40" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
     </row>
     <row r="41" spans="1:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="50"/>
@@ -1861,7 +1862,7 @@
       <c r="D41" s="50"/>
       <c r="E41" s="50"/>
     </row>
-    <row r="42" spans="1:5" ht="93.85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="100.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="62" t="s">
         <v>89</v>
       </c>
@@ -1873,35 +1874,29 @@
       <c r="E42" s="62"/>
     </row>
     <row r="43" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="125" t="s">
+      <c r="A43" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="125"/>
+      <c r="B43" s="88"/>
       <c r="C43" s="63"/>
-      <c r="D43" s="125" t="s">
+      <c r="D43" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="125"/>
+      <c r="E43" s="88"/>
     </row>
     <row r="44" spans="1:5" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="126" t="s">
+      <c r="A44" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="124"/>
+      <c r="B44" s="87"/>
       <c r="C44" s="64"/>
-      <c r="D44" s="126" t="s">
+      <c r="D44" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="124"/>
+      <c r="E44" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A40:E40"/>
@@ -1910,13 +1905,19 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -1934,8 +1935,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="127" zoomScaleNormal="100" zoomScaleSheetLayoutView="127" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="127" zoomScaleNormal="100" zoomScaleSheetLayoutView="127" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1961,18 +1962,18 @@
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="91" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="21"/>
@@ -1983,15 +1984,15 @@
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="53.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
     </row>
     <row r="5" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="32"/>
@@ -2000,7 +2001,6 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" ht="17.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G6" s="28" t="s">
@@ -2016,7 +2016,7 @@
       <c r="A8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2040,12 +2040,12 @@
       <c r="A11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
@@ -2140,23 +2140,23 @@
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="22"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="101"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="46" t="s">
@@ -2173,58 +2173,58 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="44.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-    </row>
-    <row r="24" spans="1:7" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="104" t="s">
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+    </row>
+    <row r="24" spans="1:7" s="17" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-    </row>
-    <row r="26" spans="1:7" s="17" customFormat="1" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="104" t="s">
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+    </row>
+    <row r="26" spans="1:7" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-    </row>
-    <row r="27" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="104" t="s">
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+    </row>
+    <row r="27" spans="1:7" s="17" customFormat="1" ht="36.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
       <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="29"/>
       <c r="F28" s="27"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="38.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="86"/>
       <c r="B29" s="86"/>
       <c r="C29" s="86"/>
@@ -2232,13 +2232,12 @@
       <c r="F29" s="27"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" ht="95.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D30" s="30"/>
       <c r="E30" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17" t="s">
+      <c r="G30" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2249,27 +2248,24 @@
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E32" s="99" t="s">
+    <row r="32" spans="1:7" ht="30.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E32" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
+    <mergeCell ref="A4:G4"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E32:G32"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
@@ -2294,146 +2290,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="54.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
     </row>
     <row r="2" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
     </row>
     <row r="5" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
     </row>
     <row r="11" spans="1:5" ht="10.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="117"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
@@ -2562,31 +2558,31 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="108" t="s">
+      <c r="A25" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
@@ -2715,31 +2711,31 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="108" t="s">
+      <c r="A38" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
@@ -2868,13 +2864,13 @@
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="107" t="s">
+      <c r="A47" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
     </row>
     <row r="48" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
@@ -2911,29 +2907,29 @@
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="116" t="s">
+      <c r="A52" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="116"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="116"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="121"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="117"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="109"/>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
     </row>
     <row r="55" spans="1:5" s="3" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
@@ -2944,13 +2940,13 @@
       <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="115" t="s">
+      <c r="A56" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="115"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="120"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
@@ -2961,141 +2957,141 @@
       <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="107" t="s">
+      <c r="A59" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="107"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="107"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="107" t="s">
+      <c r="A61" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="107" t="s">
+      <c r="A62" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="107" t="s">
+      <c r="A63" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="107"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="109"/>
-      <c r="B64" s="109"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="108" t="s">
+      <c r="A65" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="108"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="108" t="s">
+      <c r="A66" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="108"/>
-      <c r="C66" s="108"/>
-      <c r="D66" s="108"/>
-      <c r="E66" s="108"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="113"/>
+      <c r="E66" s="113"/>
     </row>
     <row r="67" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="110" t="s">
+      <c r="A67" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="110"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="110"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="115"/>
+      <c r="D67" s="115"/>
+      <c r="E67" s="115"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="108" t="s">
+      <c r="A68" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="108"/>
-      <c r="C68" s="108"/>
-      <c r="D68" s="108"/>
-      <c r="E68" s="108"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="113"/>
+      <c r="D68" s="113"/>
+      <c r="E68" s="113"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
     </row>
     <row r="70" spans="1:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="110" t="s">
+      <c r="A70" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="110"/>
-      <c r="C70" s="110"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="110"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="115"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="115"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="108" t="s">
+      <c r="A71" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="108"/>
-      <c r="C71" s="108"/>
-      <c r="D71" s="108"/>
-      <c r="E71" s="108"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="113"/>
+      <c r="D71" s="113"/>
+      <c r="E71" s="113"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="114" t="s">
+      <c r="A82" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="114"/>
+      <c r="B82" s="119"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="112" t="s">
+      <c r="D82" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="E82" s="112"/>
+      <c r="E82" s="117"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="113" t="s">
+      <c r="A83" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="113"/>
+      <c r="B83" s="118"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="111" t="s">
+      <c r="D83" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="111"/>
+      <c r="E83" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -3167,108 +3163,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="54.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="124"/>
     </row>
     <row r="2" spans="1:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="125"/>
     </row>
     <row r="3" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="123"/>
+      <c r="B3" s="128"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="121"/>
     </row>
     <row r="5" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="121"/>
+      <c r="B5" s="126"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="118"/>
+      <c r="B6" s="123"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="116"/>
+      <c r="B7" s="121"/>
     </row>
     <row r="8" spans="1:2" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="107"/>
+      <c r="B8" s="112"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="118"/>
+      <c r="B9" s="123"/>
     </row>
     <row r="10" spans="1:2" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="117"/>
+      <c r="B10" s="122"/>
     </row>
     <row r="11" spans="1:2" ht="10.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="117"/>
-      <c r="B11" s="117"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="108"/>
+      <c r="B12" s="113"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="107"/>
+      <c r="B13" s="112"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="109"/>
-      <c r="B14" s="109"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="108"/>
+      <c r="B15" s="113"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="107"/>
+      <c r="B16" s="112"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="107"/>
+      <c r="B17" s="112"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="107"/>
+      <c r="B18" s="112"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
@@ -3322,30 +3318,30 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="116"/>
+      <c r="B30" s="121"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="117"/>
+      <c r="B31" s="122"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="109"/>
-      <c r="B32" s="109"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="114"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="108"/>
+      <c r="B33" s="113"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
@@ -3353,10 +3349,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="122"/>
+      <c r="B35" s="127"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
@@ -3364,8 +3360,8 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="109"/>
-      <c r="B37" s="109"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="114"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
@@ -3373,10 +3369,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="117"/>
+      <c r="B39" s="122"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
@@ -3389,16 +3385,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="107" t="s">
+      <c r="A43" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="107"/>
+      <c r="B43" s="112"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="107" t="s">
+      <c r="A44" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="107"/>
+      <c r="B44" s="112"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
@@ -3407,110 +3403,110 @@
       <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="107" t="s">
+      <c r="A46" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="107"/>
+      <c r="B46" s="112"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="107" t="s">
+      <c r="A47" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="107"/>
+      <c r="B47" s="112"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="107"/>
+      <c r="B48" s="112"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="107"/>
+      <c r="B49" s="112"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="107" t="s">
+      <c r="A50" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="107"/>
+      <c r="B50" s="112"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="107" t="s">
+      <c r="A51" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="107"/>
+      <c r="B51" s="112"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="107" t="s">
+      <c r="A52" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="107"/>
+      <c r="B52" s="112"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="107"/>
+      <c r="B53" s="112"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="107" t="s">
+      <c r="A54" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="107"/>
+      <c r="B54" s="112"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="107" t="s">
+      <c r="A55" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="107"/>
+      <c r="B55" s="112"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="109"/>
-      <c r="B56" s="109"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="114"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="108" t="s">
+      <c r="A57" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="108"/>
+      <c r="B57" s="113"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="108" t="s">
+      <c r="A58" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="108"/>
+      <c r="B58" s="113"/>
     </row>
     <row r="59" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="110"/>
+      <c r="B59" s="115"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="108" t="s">
+      <c r="A60" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="108"/>
+      <c r="B60" s="113"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="108" t="s">
+      <c r="A61" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="108"/>
+      <c r="B61" s="113"/>
     </row>
     <row r="62" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="110" t="s">
+      <c r="A62" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="110"/>
+      <c r="B62" s="115"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="108"/>
+      <c r="B63" s="113"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">

--- a/templates/Sales_Purchase_Contract_Live.xlsx
+++ b/templates/Sales_Purchase_Contract_Live.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ABD0CB-ECFB-4184-89BF-D490EF7F91DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B010D1DD-A94A-4F8D-8F04-9B3BC9586006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="83" windowWidth="27076" windowHeight="16995" xr2:uid="{36A75300-EFCB-4154-8D49-868D6DB376F0}"/>
+    <workbookView xWindow="-55778" yWindow="-277" windowWidth="28995" windowHeight="16394" xr2:uid="{36A75300-EFCB-4154-8D49-868D6DB376F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Contract" sheetId="5" r:id="rId1"/>
@@ -29,9 +29,11 @@
     <definedName name="Invoice_sign_seller_start">Invoice!$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contract!$A$1:$E$83</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Invoice!$A$1:$G$32</definedName>
-    <definedName name="Sign_seller_end">Sales_Contract!$B$42</definedName>
-    <definedName name="Sign_seller_start">Sales_Contract!$A$42</definedName>
-    <definedName name="Документация_BL">Sales_Contract!$A$40</definedName>
+    <definedName name="Sign_seller_end_1">Sales_Contract!$B$24</definedName>
+    <definedName name="Sign_seller_end_2">Sales_Contract!$B$45</definedName>
+    <definedName name="Sign_seller_start_1">Sales_Contract!$A$24</definedName>
+    <definedName name="Sign_seller_start_2">Sales_Contract!$A$45</definedName>
+    <definedName name="Документация_BL">Sales_Contract!$A$43</definedName>
     <definedName name="Инвойс_адреса_адрес">Invoice!$A$24</definedName>
     <definedName name="Инвойс_адреса_банк">Invoice!$A$26</definedName>
     <definedName name="Инвойс_адреса_банк_адрес">Invoice!$A$27</definedName>
@@ -49,27 +51,29 @@
     <definedName name="Инвойс_продавец">Invoice!$B$9</definedName>
     <definedName name="Инвойс_продавец_печать_подвал">Invoice!$E$32</definedName>
     <definedName name="Инвойс_условия_доставки">Invoice!$B$10</definedName>
-    <definedName name="Контракт_адреса_банк">Sales_Contract!$A$33</definedName>
-    <definedName name="Контракт_адреса_банк_адрес">Sales_Contract!$A$34</definedName>
-    <definedName name="Контракт_адреса_банк_свифт">Sales_Contract!$A$35</definedName>
-    <definedName name="Контракт_адреса_продавец">Sales_Contract!$A$30</definedName>
-    <definedName name="Контракт_адреса_продавец_адрес">Sales_Contract!$A$31</definedName>
-    <definedName name="Контракт_адреса_счет">Sales_Contract!$A$32</definedName>
+    <definedName name="Контракт_адреса_банк">Sales_Contract!$A$36</definedName>
+    <definedName name="Контракт_адреса_банк_адрес">Sales_Contract!$A$37</definedName>
+    <definedName name="Контракт_адреса_банк_свифт">Sales_Contract!$A$38</definedName>
+    <definedName name="Контракт_адреса_продавец">Sales_Contract!$A$33</definedName>
+    <definedName name="Контракт_адреса_продавец_адрес">Sales_Contract!$A$34</definedName>
+    <definedName name="Контракт_адреса_счет">Sales_Contract!$A$35</definedName>
     <definedName name="Контракт_всего_места">Sales_Contract!$D$17</definedName>
     <definedName name="Контракт_всего_цена">Sales_Contract!$E$17</definedName>
     <definedName name="Контракт_дата">Sales_Contract!$A$4</definedName>
     <definedName name="Контракт_доставка">Sales_Contract!$A$20</definedName>
     <definedName name="Контракт_ЕТА">Sales_Contract!$A$18</definedName>
     <definedName name="Контракт_номер">Sales_Contract!$A$3</definedName>
-    <definedName name="Контракт_оплата">Sales_Contract!$A$25</definedName>
+    <definedName name="Контракт_оплата">Sales_Contract!$A$28</definedName>
     <definedName name="Контракт_покупатель">Sales_Contract!$A$8</definedName>
     <definedName name="Контракт_покупатель_адрес">Sales_Contract!$A$9</definedName>
-    <definedName name="Контракт_покупатель_печать_подвал">Sales_Contract!$D$44</definedName>
+    <definedName name="Контракт_покупатель_печать_подвал_1">Sales_Contract!$D$26</definedName>
+    <definedName name="Контракт_покупатель_печать_подвал_2">Sales_Contract!$D$47</definedName>
     <definedName name="Контракт_предмет">Sales_Contract!$A$13</definedName>
     <definedName name="Контракт_предмет_массив">Sales_Contract!$A$16</definedName>
     <definedName name="Контракт_продавец">Sales_Contract!$A$5</definedName>
     <definedName name="Контракт_продавец_адрес">Sales_Contract!$A$6</definedName>
-    <definedName name="Контракт_продавец_печать_подвал">Sales_Contract!$A$44</definedName>
+    <definedName name="Контракт_продавец_печать_подвал_1">Sales_Contract!$A$26</definedName>
+    <definedName name="Контракт_продавец_печать_подвал_2">Sales_Contract!$A$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="125">
   <si>
     <t>SALES AND PURCHASE CONTRACT</t>
   </si>
@@ -764,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,9 +942,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1065,12 +1066,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1139,6 +1134,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,10 +1479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47095D31-FC5E-470A-80F4-D63DA89DCA6C}">
-  <dimension ref="A1:E44"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="139" zoomScaleNormal="157" zoomScaleSheetLayoutView="139" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="139" zoomScaleNormal="157" zoomScaleSheetLayoutView="139" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1487,30 +1497,30 @@
     <col min="5" max="5" width="20.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="50.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="42.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-    </row>
-    <row r="3" spans="1:5" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="98" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+    </row>
+    <row r="3" spans="1:5" ht="38.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="50" t="s">
@@ -1522,142 +1532,142 @@
       <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="36.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:5" s="49" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-    </row>
-    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="96"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
     </row>
     <row r="12" spans="1:5" s="49" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
     </row>
     <row r="13" spans="1:5" s="49" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
     </row>
     <row r="14" spans="1:5" s="49" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="76"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
     </row>
     <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="70" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="73">
         <v>56</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="72">
         <v>25190</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="74">
         <v>1410640</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="79" t="s">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82">
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81">
         <f>SUM(D16:D16)</f>
         <v>25190</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="82">
         <f>SUM(E16:E16)</f>
         <v>1410640</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="39.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="84" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="59"/>
@@ -1701,216 +1711,249 @@
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
     </row>
-    <row r="23" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="57"/>
+    <row r="23" spans="1:5" ht="43.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="50"/>
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
     </row>
-    <row r="24" spans="1:5" s="49" customFormat="1" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66" t="s">
+    <row r="24" spans="1:5" ht="100.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+    </row>
+    <row r="25" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="87"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="87"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="86"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="86"/>
+    </row>
+    <row r="27" spans="1:5" s="49" customFormat="1" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-    </row>
-    <row r="25" spans="1:5" s="49" customFormat="1" ht="47.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="105" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+    </row>
+    <row r="28" spans="1:5" s="49" customFormat="1" ht="47.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-    </row>
-    <row r="26" spans="1:5" s="49" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-    </row>
-    <row r="27" spans="1:5" s="49" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="104" t="s">
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+    </row>
+    <row r="29" spans="1:5" s="49" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="128"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+    </row>
+    <row r="30" spans="1:5" s="49" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-    </row>
-    <row r="28" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="103" t="s">
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+    </row>
+    <row r="31" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-    </row>
-    <row r="30" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="102" t="s">
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="96" t="s">
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+    </row>
+    <row r="34" spans="1:5" s="3" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="65"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="99" t="s">
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="64"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-    </row>
-    <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="100" t="s">
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+    </row>
+    <row r="36" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="54"/>
-    </row>
-    <row r="34" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="100" t="s">
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="69"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="99" t="s">
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="68"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-    </row>
-    <row r="36" spans="1:5" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="60" t="s">
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+    </row>
+    <row r="39" spans="1:5" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="62"/>
-    </row>
-    <row r="38" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="56" t="s">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="61"/>
+    </row>
+    <row r="41" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-    </row>
-    <row r="39" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="50" t="s">
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+    </row>
+    <row r="42" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-    </row>
-    <row r="40" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="101" t="s">
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+    </row>
+    <row r="43" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-    </row>
-    <row r="41" spans="1:5" ht="73.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-    </row>
-    <row r="42" spans="1:5" ht="100.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="62" t="s">
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+    </row>
+    <row r="44" spans="1:5" ht="47.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+    </row>
+    <row r="45" spans="1:5" ht="100.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B45" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-    </row>
-    <row r="43" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="88" t="s">
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+    </row>
+    <row r="46" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="88"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="88" t="s">
+      <c r="B46" s="87"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="88"/>
-    </row>
-    <row r="44" spans="1:5" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="89" t="s">
+      <c r="E46" s="87"/>
+    </row>
+    <row r="47" spans="1:5" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="89" t="s">
+      <c r="B47" s="86"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="87"/>
+      <c r="E47" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A25:E25"/>
     <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A1:E1"/>
@@ -1921,9 +1964,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="28" max="4" man="1"/>
+    <brk id="26" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -1962,18 +2005,18 @@
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="90" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="21"/>
@@ -1984,15 +2027,15 @@
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="53.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
     </row>
     <row r="5" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="32"/>
@@ -2040,12 +2083,12 @@
       <c r="A11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
@@ -2153,10 +2196,10 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="22"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="94"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="46" t="s">
@@ -2173,61 +2216,61 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="44.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="111" t="s">
+      <c r="A24" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="111" t="s">
+      <c r="A26" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="36.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="111" t="s">
+      <c r="A27" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="29"/>
       <c r="F28" s="27"/>
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="38.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="29"/>
       <c r="F29" s="27"/>
       <c r="G29" s="17"/>
@@ -2249,11 +2292,11 @@
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" ht="30.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2290,146 +2333,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="54.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
     </row>
     <row r="2" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
     </row>
     <row r="11" spans="1:5" ht="10.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
@@ -2558,31 +2601,31 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="113" t="s">
+      <c r="A25" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="113" t="s">
+      <c r="A27" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
@@ -2711,31 +2754,31 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="113" t="s">
+      <c r="A36" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="113"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="113" t="s">
+      <c r="A37" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
@@ -2864,13 +2907,13 @@
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="112" t="s">
+      <c r="A47" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="112"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="109"/>
     </row>
     <row r="48" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
@@ -2907,29 +2950,29 @@
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="121" t="s">
+      <c r="A52" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="122" t="s">
+      <c r="A53" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="114"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="1:5" s="3" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
@@ -2940,13 +2983,13 @@
       <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="120" t="s">
+      <c r="A56" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="120"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="117"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
@@ -2957,141 +3000,141 @@
       <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="112" t="s">
+      <c r="A60" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="112"/>
-      <c r="C60" s="112"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="112" t="s">
+      <c r="A61" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="112"/>
-      <c r="C61" s="112"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="112" t="s">
+      <c r="A63" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="112"/>
-      <c r="C63" s="112"/>
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="109"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="114"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="114"/>
+      <c r="A64" s="111"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="113" t="s">
+      <c r="A65" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="110"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="113" t="s">
+      <c r="A66" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="113"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="113"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
     </row>
     <row r="67" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="115" t="s">
+      <c r="A67" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="115"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="115"/>
-      <c r="E67" s="115"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="113" t="s">
+      <c r="A68" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="113"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="113"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
+      <c r="B69" s="110"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
     </row>
     <row r="70" spans="1:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="115" t="s">
+      <c r="A70" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="115"/>
-      <c r="C70" s="115"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="115"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="113" t="s">
+      <c r="A71" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="113"/>
-      <c r="C71" s="113"/>
-      <c r="D71" s="113"/>
-      <c r="E71" s="113"/>
+      <c r="B71" s="110"/>
+      <c r="C71" s="110"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="110"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="119" t="s">
+      <c r="A82" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="119"/>
+      <c r="B82" s="116"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="117" t="s">
+      <c r="D82" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="E82" s="117"/>
+      <c r="E82" s="114"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="118" t="s">
+      <c r="A83" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="118"/>
+      <c r="B83" s="115"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="116" t="s">
+      <c r="D83" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="116"/>
+      <c r="E83" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -3163,108 +3206,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="54.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124"/>
+      <c r="B1" s="121"/>
     </row>
     <row r="2" spans="1:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="125"/>
+      <c r="B2" s="122"/>
     </row>
     <row r="3" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
+      <c r="B3" s="125"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="121"/>
+      <c r="B4" s="118"/>
     </row>
     <row r="5" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="126"/>
+      <c r="B5" s="123"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123"/>
+      <c r="B6" s="120"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="121"/>
+      <c r="B7" s="118"/>
     </row>
     <row r="8" spans="1:2" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="112"/>
+      <c r="B8" s="109"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="123"/>
+      <c r="B9" s="120"/>
     </row>
     <row r="10" spans="1:2" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="122"/>
+      <c r="B10" s="119"/>
     </row>
     <row r="11" spans="1:2" ht="10.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="113"/>
+      <c r="B12" s="110"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="112"/>
+      <c r="B13" s="109"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="111"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="113"/>
+      <c r="B15" s="110"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="112"/>
+      <c r="B16" s="109"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="112"/>
+      <c r="B17" s="109"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="112"/>
+      <c r="B18" s="109"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
@@ -3318,30 +3361,30 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="114"/>
-      <c r="B29" s="114"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="121"/>
+      <c r="B30" s="118"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="122"/>
+      <c r="B31" s="119"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="114"/>
-      <c r="B32" s="114"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="113"/>
+      <c r="B33" s="110"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
@@ -3349,10 +3392,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="127" t="s">
+      <c r="A35" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="127"/>
+      <c r="B35" s="124"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
@@ -3360,8 +3403,8 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="114"/>
-      <c r="B37" s="114"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
@@ -3369,10 +3412,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="122" t="s">
+      <c r="A39" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="122"/>
+      <c r="B39" s="119"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
@@ -3385,16 +3428,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="112" t="s">
+      <c r="A43" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="112"/>
+      <c r="B43" s="109"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="112" t="s">
+      <c r="A44" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="112"/>
+      <c r="B44" s="109"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
@@ -3403,110 +3446,110 @@
       <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="112"/>
+      <c r="B46" s="109"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="112" t="s">
+      <c r="A47" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="112"/>
+      <c r="B47" s="109"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="112"/>
+      <c r="B48" s="109"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="112" t="s">
+      <c r="A49" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="112"/>
+      <c r="B49" s="109"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="112"/>
+      <c r="B50" s="109"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="112" t="s">
+      <c r="A51" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="112"/>
+      <c r="B51" s="109"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="112" t="s">
+      <c r="A52" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="112"/>
+      <c r="B52" s="109"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="112"/>
+      <c r="B53" s="109"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="112" t="s">
+      <c r="A54" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="112"/>
+      <c r="B54" s="109"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="112" t="s">
+      <c r="A55" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="112"/>
+      <c r="B55" s="109"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="114"/>
-      <c r="B56" s="114"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="111"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="113"/>
+      <c r="B57" s="110"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="113" t="s">
+      <c r="A58" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="113"/>
+      <c r="B58" s="110"/>
     </row>
     <row r="59" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="115" t="s">
+      <c r="A59" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="115"/>
+      <c r="B59" s="112"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="113" t="s">
+      <c r="A60" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="113"/>
+      <c r="B60" s="110"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="113" t="s">
+      <c r="A61" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="113"/>
+      <c r="B61" s="110"/>
     </row>
     <row r="62" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="115" t="s">
+      <c r="A62" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="115"/>
+      <c r="B62" s="112"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="113"/>
+      <c r="B63" s="110"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">

--- a/templates/Sales_Purchase_Contract_Live.xlsx
+++ b/templates/Sales_Purchase_Contract_Live.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papka\TSAddIn\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B010D1DD-A94A-4F8D-8F04-9B3BC9586006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADBA7C4-0E39-4025-9C19-50ED32380314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55778" yWindow="-277" windowWidth="28995" windowHeight="16394" xr2:uid="{36A75300-EFCB-4154-8D49-868D6DB376F0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="27076" windowHeight="16395" activeTab="1" xr2:uid="{36A75300-EFCB-4154-8D49-868D6DB376F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_Contract" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="Invoice_sign_seller_end">Invoice!$G$30</definedName>
     <definedName name="Invoice_sign_seller_start">Invoice!$E$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contract!$A$1:$E$83</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Invoice!$A$1:$G$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Invoice!$A$1:$G$44</definedName>
     <definedName name="Sign_seller_end_1">Sales_Contract!$B$24</definedName>
     <definedName name="Sign_seller_end_2">Sales_Contract!$B$45</definedName>
     <definedName name="Sign_seller_start_1">Sales_Contract!$A$24</definedName>
@@ -768,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,33 +1039,42 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,67 +1094,55 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,8 +1481,8 @@
   </sheetPr>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="139" zoomScaleNormal="157" zoomScaleSheetLayoutView="139" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="139" zoomScaleNormal="157" zoomScaleSheetLayoutView="139" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1498,13 +1495,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="42.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="83"/>
@@ -1514,13 +1511,13 @@
       <c r="E2" s="83"/>
     </row>
     <row r="3" spans="1:5" ht="38.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="50" t="s">
@@ -1532,83 +1529,83 @@
       <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="36.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:5" s="49" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5" ht="12.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
     </row>
     <row r="11" spans="1:5" ht="24.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
     </row>
     <row r="12" spans="1:5" s="49" customFormat="1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
     </row>
     <row r="13" spans="1:5" s="49" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
     </row>
     <row r="14" spans="1:5" s="49" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="75"/>
@@ -1761,29 +1758,29 @@
       <c r="E27" s="66"/>
     </row>
     <row r="28" spans="1:5" s="49" customFormat="1" ht="47.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="127" t="s">
+      <c r="A28" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
     </row>
     <row r="29" spans="1:5" s="49" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="128"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
     </row>
     <row r="30" spans="1:5" s="49" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="129" t="s">
+      <c r="A30" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
     </row>
     <row r="31" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="61"/>
@@ -1793,67 +1790,67 @@
       <c r="E31" s="61"/>
     </row>
     <row r="32" spans="1:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
     </row>
     <row r="33" spans="1:5" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
     </row>
     <row r="34" spans="1:5" s="3" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="95" t="s">
+      <c r="A34" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="64"/>
     </row>
     <row r="35" spans="1:5" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
     </row>
     <row r="36" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
       <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="99" t="s">
+      <c r="A37" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
       <c r="E37" s="68"/>
     </row>
     <row r="38" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="98" t="s">
+      <c r="A38" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
     </row>
     <row r="39" spans="1:5" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="61"/>
@@ -1890,13 +1887,13 @@
       <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
     </row>
     <row r="44" spans="1:5" ht="47.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="50"/>
@@ -1940,6 +1937,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A43:E43"/>
@@ -1954,13 +1958,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -1976,10 +1973,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="127" zoomScaleNormal="100" zoomScaleSheetLayoutView="127" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="127" zoomScaleNormal="100" zoomScaleSheetLayoutView="127" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2027,15 +2024,15 @@
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="53.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
     </row>
     <row r="5" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="32"/>
@@ -2083,12 +2080,12 @@
       <c r="A11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
@@ -2216,53 +2213,53 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="44.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
     </row>
     <row r="25" spans="1:7" s="17" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
     </row>
     <row r="26" spans="1:7" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
     </row>
     <row r="27" spans="1:7" s="17" customFormat="1" ht="36.85" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
       <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="29"/>
       <c r="F28" s="27"/>
       <c r="G28" s="17"/>
@@ -2298,6 +2295,18 @@
       <c r="F32" s="91"/>
       <c r="G32" s="91"/>
     </row>
+    <row r="33" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A4:G4"/>
@@ -2333,85 +2342,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="54.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="1:5" ht="20.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
     </row>
     <row r="5" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="119" t="s">
@@ -2430,49 +2439,49 @@
       <c r="E11" s="119"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
@@ -2601,31 +2610,31 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
@@ -2754,31 +2763,31 @@
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
@@ -2907,13 +2916,13 @@
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="109" t="s">
+      <c r="A47" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
     </row>
     <row r="48" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
@@ -2950,13 +2959,13 @@
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="118" t="s">
+      <c r="A52" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="119" t="s">
@@ -2968,11 +2977,11 @@
       <c r="E53" s="119"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
     </row>
     <row r="55" spans="1:5" s="3" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
@@ -2983,13 +2992,13 @@
       <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="117" t="s">
+      <c r="A56" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="117"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
@@ -3000,167 +3009,149 @@
       <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="109" t="s">
+      <c r="A59" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="109"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="109"/>
-      <c r="E59" s="109"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="109" t="s">
+      <c r="A60" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="109"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="109"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="109" t="s">
+      <c r="A61" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="109"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="115"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="109" t="s">
+      <c r="A62" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="109"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="109"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="115"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="115"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="115"/>
+      <c r="E63" s="115"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="111"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="111"/>
+      <c r="A64" s="125"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="110"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="110"/>
-      <c r="E65" s="110"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="110" t="s">
+      <c r="A66" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="110"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
+      <c r="B66" s="118"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
     </row>
     <row r="67" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="112" t="s">
+      <c r="A67" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="112"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
+      <c r="B67" s="120"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="110" t="s">
+      <c r="A68" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="110"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="110"/>
+      <c r="B68" s="118"/>
+      <c r="C68" s="118"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="110" t="s">
+      <c r="A69" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="110"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
+      <c r="B69" s="118"/>
+      <c r="C69" s="118"/>
+      <c r="D69" s="118"/>
+      <c r="E69" s="118"/>
     </row>
     <row r="70" spans="1:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="112" t="s">
+      <c r="A70" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="112"/>
-      <c r="C70" s="112"/>
-      <c r="D70" s="112"/>
-      <c r="E70" s="112"/>
+      <c r="B70" s="120"/>
+      <c r="C70" s="120"/>
+      <c r="D70" s="120"/>
+      <c r="E70" s="120"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="110" t="s">
+      <c r="A71" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="110"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="110"/>
-      <c r="E71" s="110"/>
+      <c r="B71" s="118"/>
+      <c r="C71" s="118"/>
+      <c r="D71" s="118"/>
+      <c r="E71" s="118"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="116" t="s">
+      <c r="A82" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="116"/>
+      <c r="B82" s="124"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="114" t="s">
+      <c r="D82" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="E82" s="114"/>
+      <c r="E82" s="122"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="115" t="s">
+      <c r="A83" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="115"/>
+      <c r="B83" s="123"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="113" t="s">
+      <c r="D83" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="113"/>
+      <c r="E83" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A54:E54"/>
     <mergeCell ref="A69:E69"/>
     <mergeCell ref="A70:E70"/>
     <mergeCell ref="A71:E71"/>
@@ -3177,11 +3168,29 @@
     <mergeCell ref="A63:E63"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -3206,58 +3215,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="54.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:2" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122"/>
+      <c r="B2" s="114"/>
     </row>
     <row r="3" spans="1:2" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="125"/>
+      <c r="B3" s="127"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="118"/>
+      <c r="B4" s="116"/>
     </row>
     <row r="5" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="123"/>
+      <c r="B5" s="117"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="120"/>
+      <c r="B6" s="112"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="118"/>
+      <c r="B7" s="116"/>
     </row>
     <row r="8" spans="1:2" ht="28.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="109"/>
+      <c r="B8" s="115"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="120"/>
+      <c r="B9" s="112"/>
     </row>
     <row r="10" spans="1:2" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="119" t="s">
@@ -3270,44 +3279,44 @@
       <c r="B11" s="119"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="110"/>
+      <c r="B12" s="118"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="109"/>
+      <c r="B13" s="115"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="125"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="110"/>
+      <c r="B15" s="118"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="115"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="115"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="115"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
@@ -3361,14 +3370,14 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="125"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="118" t="s">
+      <c r="A30" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="118"/>
+      <c r="B30" s="116"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="119" t="s">
@@ -3377,14 +3386,14 @@
       <c r="B31" s="119"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="111"/>
-      <c r="B32" s="111"/>
+      <c r="A32" s="125"/>
+      <c r="B32" s="125"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="110"/>
+      <c r="B33" s="118"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
@@ -3392,10 +3401,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="124" t="s">
+      <c r="A35" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="124"/>
+      <c r="B35" s="128"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
@@ -3403,8 +3412,8 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="125"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
@@ -3428,16 +3437,16 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="109"/>
+      <c r="B43" s="115"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="109"/>
+      <c r="B44" s="115"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
@@ -3446,110 +3455,110 @@
       <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="109" t="s">
+      <c r="A46" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="109"/>
+      <c r="B46" s="115"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="109" t="s">
+      <c r="A47" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="109"/>
+      <c r="B47" s="115"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="109" t="s">
+      <c r="A48" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="109"/>
+      <c r="B48" s="115"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="109" t="s">
+      <c r="A49" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="109"/>
+      <c r="B49" s="115"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="109"/>
+      <c r="B50" s="115"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="109"/>
+      <c r="B51" s="115"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="109" t="s">
+      <c r="A52" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="109"/>
+      <c r="B52" s="115"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="109" t="s">
+      <c r="A53" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="109"/>
+      <c r="B53" s="115"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="109"/>
+      <c r="B54" s="115"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="109" t="s">
+      <c r="A55" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="109"/>
+      <c r="B55" s="115"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="111"/>
-      <c r="B56" s="111"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="125"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="110" t="s">
+      <c r="A57" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="110"/>
+      <c r="B57" s="118"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="110" t="s">
+      <c r="A58" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="110"/>
+      <c r="B58" s="118"/>
     </row>
     <row r="59" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="112"/>
+      <c r="B59" s="120"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="110"/>
+      <c r="B60" s="118"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="110"/>
+      <c r="B61" s="118"/>
     </row>
     <row r="62" spans="1:2" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="112"/>
+      <c r="B62" s="120"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="110" t="s">
+      <c r="A63" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="110"/>
+      <c r="B63" s="118"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
@@ -3569,20 +3578,22 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A30:B30"/>
@@ -3599,22 +3610,20 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
